--- a/mof_net/results/results.xlsx
+++ b/mof_net/results/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssnaik\Documents\Courses\Homeworks\adv_deep_learning\Project\deep-learning\mof_net\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yu-shanchangwork/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F97F3F-EAAF-4E26-B4DD-5D83EEE67BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEC32A7-3095-2243-BF3F-1E36FCAB668C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EA013AC4-7920-4C1D-AB14-DBACFA691254}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{EA013AC4-7920-4C1D-AB14-DBACFA691254}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
   <si>
     <t>target 1- training</t>
   </si>
@@ -62,9 +62,6 @@
     <t>NN -3 {hiddenlayers:[150, 150], lr:0.001, epochs:1000, loss:mse}</t>
   </si>
   <si>
-    <t>Method: Simple NN without anything fancy</t>
-  </si>
-  <si>
     <t>Method: Using predictions from NN-1 as inputs to the NN-2, Using predictions from NN-1 and NN-2 as inputs to NN-3</t>
   </si>
   <si>
@@ -80,26 +77,47 @@
     <t>NN -1 {hiddenlayers:[400, 500], lr:0.001, epochs:1000, loss:mse, PCs:11}</t>
   </si>
   <si>
-    <t>NN-2  {hiddenlayers:[100, 150], lr:0.01, epochs:1500, loss:mse, PCS:16}</t>
-  </si>
-  <si>
     <t>Method: Using pca to decrease feature size but adding predictions from NN1 with PC as inputs to NN2 and so on</t>
   </si>
   <si>
-    <t>NN-2  {hiddenlayers:[150, 70], lr:0.01, epochs:1500, loss:mse, PCS:10}</t>
-  </si>
-  <si>
     <t>target 3-train</t>
   </si>
   <si>
     <t>target 3 - test</t>
+  </si>
+  <si>
+    <t>Method: Simple NN without anything fancy, scaled x, scaled y</t>
+  </si>
+  <si>
+    <t>NN-2  {hiddenlayers:[100, 150], lr:0.01, epochs:1500, loss:mse, PCS:10}</t>
+  </si>
+  <si>
+    <t>NN -3 {hiddenlayers:[500, 400], lr:0.001, epochs:1000, loss:mse}</t>
+  </si>
+  <si>
+    <t>Method: Using teacers forcing with pca</t>
+  </si>
+  <si>
+    <t>target3 with input 1 and 2 - training</t>
+  </si>
+  <si>
+    <t>target3 with input 1 and 2 - test</t>
+  </si>
+  <si>
+    <t>NN-2  {hiddenlayers:[100,150 ], lr:0.01, epochs:1500, loss:mse, PCS:10}</t>
+  </si>
+  <si>
+    <t>NN -3 {hiddenlayers:[500, 400], lr:0.001, epochs:1000, loss:mse, PC 14}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Method: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,8 +131,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +170,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F3C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -158,23 +195,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -183,6 +231,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF8F3C4"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -511,36 +564,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB82BD6-4EA6-4FFC-BA2A-C4627CE68CA6}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="111" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.109375" customWidth="1"/>
-    <col min="2" max="3" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="85.33203125" customWidth="1"/>
+    <col min="2" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="6" width="18.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,187 +608,187 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>0.99</v>
+        <v>0.98829999999999996</v>
       </c>
       <c r="C4" s="1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.87660000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="1">
-        <v>0.89790000000000003</v>
+        <v>0.90159999999999996</v>
       </c>
       <c r="E5" s="1">
-        <v>0.72319999999999995</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.73780000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="1">
-        <v>0.8861</v>
+        <v>0.85850000000000004</v>
       </c>
       <c r="G6" s="1">
-        <v>0.74739999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+        <v>0.75480000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0.91310000000000002</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0.7429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="3" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.93569999999999998</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.91879999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="D17" s="3">
+        <v>0.84060000000000001</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.77769999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.99</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.91</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.91310000000000002</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0.7429</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="F18" s="3">
+        <v>0.82279999999999998</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.78939999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="5">
-        <v>0.93779999999999997</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.91969999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0.88959999999999995</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0.76270000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0.83050000000000002</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0.80020000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>4</v>
       </c>
@@ -744,65 +798,227 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
+    <row r="21" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.93569999999999998</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.91879999999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.77839999999999998</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.75539999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.85770000000000002</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.74370000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="10">
+        <v>0.93569999999999998</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0.91879999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" s="8">
-        <v>0.93779999999999997</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0.91969999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0.8468</v>
-      </c>
-      <c r="E23" s="8">
-        <v>0.79220000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0.87129999999999996</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0.76659999999999995</v>
+      <c r="D29" s="10">
+        <v>0.7873</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0.75660000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0.83560000000000001</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0.73040000000000005</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0.9345</v>
+      </c>
+      <c r="I30" s="10">
+        <v>-4.5515999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+    </row>
+    <row r="33" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="15">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="C34" s="15">
+        <v>0.87660000000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="15">
+        <v>0.92</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0.66749999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="15">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="G36" s="15">
+        <v>0.76480000000000004</v>
+      </c>
+      <c r="H36" s="15">
+        <v>0.96260000000000001</v>
+      </c>
+      <c r="I36" s="15">
+        <v>0.6835</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="B32:G32"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B8:G8"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
